--- a/Soothsayer_for_Project_Contingency_1.1.xlsx
+++ b/Soothsayer_for_Project_Contingency_1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Documents\GitHub\soothsayer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA768ABB-F8B7-4DC5-B07C-96FE5E810CD6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A07D2A-548E-4350-AF3C-C4CA5A6F05FD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2074,13 +2074,13 @@
     <t>! ! !  VERY IMPORTANT ! ! !</t>
   </si>
   <si>
-    <t>Rows 19 through 1003 are hidden - unhide these rows to add more tasks</t>
-  </si>
-  <si>
     <t>1.1</t>
   </si>
   <si>
     <t>Extended the task entry from 200 to 1000</t>
+  </si>
+  <si>
+    <t>Rows 23 through 1003 are hidden - unhide these rows to add more tasks</t>
   </si>
 </sst>
 </file>
@@ -2728,18 +2728,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2760,6 +2748,18 @@
     </xf>
     <xf numFmtId="1" fontId="14" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3137,17 +3137,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="61" t="s">
         <v>31</v>
       </c>
       <c r="H1" s="28"/>
@@ -3162,22 +3162,22 @@
       <c r="O1" s="28"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="60" t="s">
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="61"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="57"/>
       <c r="O2" s="28"/>
     </row>
     <row r="3" spans="1:15" s="32" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3204,13 +3204,13 @@
         <f>SUM(G4:G1003)</f>
         <v>24.328924264267236</v>
       </c>
-      <c r="H3" s="62"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="64"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="60"/>
       <c r="O3" s="34"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -28083,7 +28083,7 @@
     </row>
     <row r="1006" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1006" s="49" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B1006" s="3"/>
       <c r="C1006" s="3"/>
@@ -28117,63 +28117,63 @@
       <c r="H1008" s="1"/>
     </row>
     <row r="1009" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1009" s="56" t="s">
+      <c r="A1009" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="B1009" s="56"/>
-      <c r="C1009" s="56"/>
-      <c r="D1009" s="56"/>
-      <c r="E1009" s="56"/>
-      <c r="F1009" s="56"/>
-      <c r="G1009" s="56"/>
+      <c r="B1009" s="63"/>
+      <c r="C1009" s="63"/>
+      <c r="D1009" s="63"/>
+      <c r="E1009" s="63"/>
+      <c r="F1009" s="63"/>
+      <c r="G1009" s="63"/>
       <c r="H1009" s="28"/>
     </row>
     <row r="1010" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1010" s="56" t="s">
+      <c r="A1010" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="B1010" s="56"/>
-      <c r="C1010" s="56"/>
-      <c r="D1010" s="56"/>
-      <c r="E1010" s="56"/>
-      <c r="F1010" s="56"/>
+      <c r="B1010" s="63"/>
+      <c r="C1010" s="63"/>
+      <c r="D1010" s="63"/>
+      <c r="E1010" s="63"/>
+      <c r="F1010" s="63"/>
       <c r="G1010" s="3"/>
       <c r="H1010" s="28"/>
     </row>
     <row r="1011" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1011" s="56" t="s">
+      <c r="A1011" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="B1011" s="56"/>
-      <c r="C1011" s="56"/>
-      <c r="D1011" s="56"/>
+      <c r="B1011" s="63"/>
+      <c r="C1011" s="63"/>
+      <c r="D1011" s="63"/>
       <c r="E1011" s="3"/>
       <c r="F1011" s="3"/>
       <c r="G1011" s="3"/>
       <c r="H1011" s="28"/>
     </row>
     <row r="1012" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1012" s="56" t="s">
+      <c r="A1012" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="B1012" s="56"/>
-      <c r="C1012" s="56"/>
-      <c r="D1012" s="56"/>
+      <c r="B1012" s="63"/>
+      <c r="C1012" s="63"/>
+      <c r="D1012" s="63"/>
       <c r="E1012" s="3"/>
       <c r="F1012" s="3"/>
       <c r="G1012" s="3"/>
       <c r="H1012" s="28"/>
     </row>
     <row r="1013" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1013" s="56" t="s">
+      <c r="A1013" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="B1013" s="56"/>
-      <c r="C1013" s="56"/>
-      <c r="D1013" s="56"/>
-      <c r="E1013" s="56"/>
-      <c r="F1013" s="56"/>
-      <c r="G1013" s="56"/>
+      <c r="B1013" s="63"/>
+      <c r="C1013" s="63"/>
+      <c r="D1013" s="63"/>
+      <c r="E1013" s="63"/>
+      <c r="F1013" s="63"/>
+      <c r="G1013" s="63"/>
       <c r="H1013" s="28"/>
     </row>
     <row r="1014" spans="1:8" x14ac:dyDescent="0.2">
@@ -28283,14 +28283,14 @@
       <c r="H1022" s="28"/>
     </row>
     <row r="1023" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1023" s="57" t="s">
+      <c r="A1023" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="B1023" s="57"/>
-      <c r="C1023" s="57"/>
-      <c r="D1023" s="57"/>
-      <c r="E1023" s="57"/>
-      <c r="F1023" s="57"/>
+      <c r="B1023" s="64"/>
+      <c r="C1023" s="64"/>
+      <c r="D1023" s="64"/>
+      <c r="E1023" s="64"/>
+      <c r="F1023" s="64"/>
       <c r="G1023" s="3"/>
       <c r="H1023" s="28"/>
     </row>
@@ -28299,16 +28299,16 @@
     <sortCondition descending="1" ref="D4:D18"/>
   </sortState>
   <mergeCells count="10">
+    <mergeCell ref="A1011:D1011"/>
+    <mergeCell ref="A1012:D1012"/>
+    <mergeCell ref="A1023:F1023"/>
+    <mergeCell ref="A1013:G1013"/>
+    <mergeCell ref="A1:D2"/>
     <mergeCell ref="H2:N3"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="A1009:G1009"/>
     <mergeCell ref="A1010:F1010"/>
-    <mergeCell ref="A1011:D1011"/>
-    <mergeCell ref="A1012:D1012"/>
-    <mergeCell ref="A1023:F1023"/>
-    <mergeCell ref="A1013:G1013"/>
-    <mergeCell ref="A1:D2"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="At Risk input warning" error="The percentage you entered should be between 20% and 50% for most project estimation purposes.  Change the Excel Data Validation for this cell if you need to use a value outside this range." promptTitle="At Risk Error Distribution" prompt="Enter an At Risk error distribution approximation between 20% and 50%, where 33% is a normal, decreasing error, and 50% is a uniform error." sqref="K15" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -28360,10 +28360,10 @@
         <v>43736</v>
       </c>
       <c r="B2" s="54" t="s">
+        <v>567</v>
+      </c>
+      <c r="C2" s="55" t="s">
         <v>568</v>
-      </c>
-      <c r="C2" s="55" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">

--- a/Soothsayer_for_Project_Contingency_1.1.xlsx
+++ b/Soothsayer_for_Project_Contingency_1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Documents\GitHub\soothsayer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A07D2A-548E-4350-AF3C-C4CA5A6F05FD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9709A44-0B8F-401A-8B29-CB97891944CC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2080,7 +2080,7 @@
     <t>Extended the task entry from 200 to 1000</t>
   </si>
   <si>
-    <t>Rows 23 through 1003 are hidden - unhide these rows to add more tasks</t>
+    <t>Rows 24 through 1003 are hidden - unhide these rows to add more tasks</t>
   </si>
 </sst>
 </file>
@@ -2728,6 +2728,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2748,18 +2760,6 @@
     </xf>
     <xf numFmtId="1" fontId="14" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3137,17 +3137,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="65" t="s">
         <v>31</v>
       </c>
       <c r="H1" s="28"/>
@@ -3162,22 +3162,22 @@
       <c r="O1" s="28"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="56" t="s">
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="57"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="61"/>
       <c r="O2" s="28"/>
     </row>
     <row r="3" spans="1:15" s="32" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3204,13 +3204,13 @@
         <f>SUM(G4:G1003)</f>
         <v>24.328924264267236</v>
       </c>
-      <c r="H3" s="58"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="60"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="64"/>
       <c r="O3" s="34"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -28117,63 +28117,63 @@
       <c r="H1008" s="1"/>
     </row>
     <row r="1009" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1009" s="63" t="s">
+      <c r="A1009" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="B1009" s="63"/>
-      <c r="C1009" s="63"/>
-      <c r="D1009" s="63"/>
-      <c r="E1009" s="63"/>
-      <c r="F1009" s="63"/>
-      <c r="G1009" s="63"/>
+      <c r="B1009" s="56"/>
+      <c r="C1009" s="56"/>
+      <c r="D1009" s="56"/>
+      <c r="E1009" s="56"/>
+      <c r="F1009" s="56"/>
+      <c r="G1009" s="56"/>
       <c r="H1009" s="28"/>
     </row>
     <row r="1010" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1010" s="63" t="s">
+      <c r="A1010" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="B1010" s="63"/>
-      <c r="C1010" s="63"/>
-      <c r="D1010" s="63"/>
-      <c r="E1010" s="63"/>
-      <c r="F1010" s="63"/>
+      <c r="B1010" s="56"/>
+      <c r="C1010" s="56"/>
+      <c r="D1010" s="56"/>
+      <c r="E1010" s="56"/>
+      <c r="F1010" s="56"/>
       <c r="G1010" s="3"/>
       <c r="H1010" s="28"/>
     </row>
     <row r="1011" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1011" s="63" t="s">
+      <c r="A1011" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="B1011" s="63"/>
-      <c r="C1011" s="63"/>
-      <c r="D1011" s="63"/>
+      <c r="B1011" s="56"/>
+      <c r="C1011" s="56"/>
+      <c r="D1011" s="56"/>
       <c r="E1011" s="3"/>
       <c r="F1011" s="3"/>
       <c r="G1011" s="3"/>
       <c r="H1011" s="28"/>
     </row>
     <row r="1012" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1012" s="63" t="s">
+      <c r="A1012" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="B1012" s="63"/>
-      <c r="C1012" s="63"/>
-      <c r="D1012" s="63"/>
+      <c r="B1012" s="56"/>
+      <c r="C1012" s="56"/>
+      <c r="D1012" s="56"/>
       <c r="E1012" s="3"/>
       <c r="F1012" s="3"/>
       <c r="G1012" s="3"/>
       <c r="H1012" s="28"/>
     </row>
     <row r="1013" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1013" s="63" t="s">
+      <c r="A1013" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="B1013" s="63"/>
-      <c r="C1013" s="63"/>
-      <c r="D1013" s="63"/>
-      <c r="E1013" s="63"/>
-      <c r="F1013" s="63"/>
-      <c r="G1013" s="63"/>
+      <c r="B1013" s="56"/>
+      <c r="C1013" s="56"/>
+      <c r="D1013" s="56"/>
+      <c r="E1013" s="56"/>
+      <c r="F1013" s="56"/>
+      <c r="G1013" s="56"/>
       <c r="H1013" s="28"/>
     </row>
     <row r="1014" spans="1:8" x14ac:dyDescent="0.2">
@@ -28283,14 +28283,14 @@
       <c r="H1022" s="28"/>
     </row>
     <row r="1023" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1023" s="64" t="s">
+      <c r="A1023" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="B1023" s="64"/>
-      <c r="C1023" s="64"/>
-      <c r="D1023" s="64"/>
-      <c r="E1023" s="64"/>
-      <c r="F1023" s="64"/>
+      <c r="B1023" s="57"/>
+      <c r="C1023" s="57"/>
+      <c r="D1023" s="57"/>
+      <c r="E1023" s="57"/>
+      <c r="F1023" s="57"/>
       <c r="G1023" s="3"/>
       <c r="H1023" s="28"/>
     </row>
@@ -28299,16 +28299,16 @@
     <sortCondition descending="1" ref="D4:D18"/>
   </sortState>
   <mergeCells count="10">
+    <mergeCell ref="H2:N3"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A1009:G1009"/>
+    <mergeCell ref="A1010:F1010"/>
     <mergeCell ref="A1011:D1011"/>
     <mergeCell ref="A1012:D1012"/>
     <mergeCell ref="A1023:F1023"/>
     <mergeCell ref="A1013:G1013"/>
     <mergeCell ref="A1:D2"/>
-    <mergeCell ref="H2:N3"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A1009:G1009"/>
-    <mergeCell ref="A1010:F1010"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="At Risk input warning" error="The percentage you entered should be between 20% and 50% for most project estimation purposes.  Change the Excel Data Validation for this cell if you need to use a value outside this range." promptTitle="At Risk Error Distribution" prompt="Enter an At Risk error distribution approximation between 20% and 50%, where 33% is a normal, decreasing error, and 50% is a uniform error." sqref="K15" xr:uid="{00000000-0002-0000-0000-000000000000}">
